--- a/AAII_Financials/Quarterly/CHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>CHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,173 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>55875000</v>
+        <v>49894300</v>
       </c>
       <c r="E8" s="3">
-        <v>49498700</v>
+        <v>54504200</v>
       </c>
       <c r="F8" s="3">
-        <v>56220100</v>
+        <v>48284400</v>
       </c>
       <c r="G8" s="3">
-        <v>50453700</v>
+        <v>54840800</v>
       </c>
       <c r="H8" s="3">
-        <v>55795200</v>
+        <v>49216000</v>
       </c>
       <c r="I8" s="3">
-        <v>48506300</v>
+        <v>54426400</v>
       </c>
       <c r="J8" s="3">
+        <v>47316300</v>
+      </c>
+      <c r="K8" s="3">
         <v>53138000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47883600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51304000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47530600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5684400</v>
+        <v>4611300</v>
       </c>
       <c r="E9" s="3">
-        <v>9067400</v>
+        <v>5544900</v>
       </c>
       <c r="F9" s="3">
-        <v>10215300</v>
+        <v>8844900</v>
       </c>
       <c r="G9" s="3">
-        <v>9360100</v>
+        <v>9964700</v>
       </c>
       <c r="H9" s="3">
-        <v>10980500</v>
+        <v>9130400</v>
       </c>
       <c r="I9" s="3">
-        <v>9910600</v>
+        <v>10711100</v>
       </c>
       <c r="J9" s="3">
+        <v>9667500</v>
+      </c>
+      <c r="K9" s="3">
         <v>11355200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10230600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9305000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7412000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50190600</v>
+        <v>45283100</v>
       </c>
       <c r="E10" s="3">
-        <v>40431400</v>
+        <v>48959300</v>
       </c>
       <c r="F10" s="3">
-        <v>46004700</v>
+        <v>39439500</v>
       </c>
       <c r="G10" s="3">
-        <v>41093700</v>
+        <v>44876100</v>
       </c>
       <c r="H10" s="3">
-        <v>44814700</v>
+        <v>40085500</v>
       </c>
       <c r="I10" s="3">
-        <v>38595700</v>
+        <v>43715200</v>
       </c>
       <c r="J10" s="3">
+        <v>37648800</v>
+      </c>
+      <c r="K10" s="3">
         <v>41782800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37653000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41999000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40118600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,25 +845,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
-        <v>2968600</v>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>3344700</v>
+        <v>2895800</v>
       </c>
       <c r="G12" s="3">
-        <v>5454500</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
+        <v>3262600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5320700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -868,8 +881,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,31 +919,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>139300</v>
+        <v>304400</v>
       </c>
       <c r="E14" s="3">
-        <v>179400</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>135900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>175000</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>1806800</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>1762500</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>1035400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>1010000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -938,43 +957,49 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13112900</v>
+        <v>12796000</v>
       </c>
       <c r="E15" s="3">
-        <v>11184700</v>
+        <v>12791200</v>
       </c>
       <c r="F15" s="3">
-        <v>10933300</v>
+        <v>10910300</v>
       </c>
       <c r="G15" s="3">
-        <v>11128200</v>
+        <v>10665100</v>
       </c>
       <c r="H15" s="3">
-        <v>10436200</v>
+        <v>10855200</v>
       </c>
       <c r="I15" s="3">
-        <v>10096700</v>
+        <v>10180100</v>
       </c>
       <c r="J15" s="3">
+        <v>9849000</v>
+      </c>
+      <c r="K15" s="3">
         <v>9788100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10264200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10083700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9734600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -985,78 +1010,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>47301300</v>
+        <v>42421300</v>
       </c>
       <c r="E17" s="3">
-        <v>42080500</v>
+        <v>46140900</v>
       </c>
       <c r="F17" s="3">
-        <v>46221700</v>
+        <v>41048200</v>
       </c>
       <c r="G17" s="3">
-        <v>42971000</v>
+        <v>45087700</v>
       </c>
       <c r="H17" s="3">
-        <v>46042300</v>
+        <v>41916800</v>
       </c>
       <c r="I17" s="3">
-        <v>41051500</v>
+        <v>44912700</v>
       </c>
       <c r="J17" s="3">
+        <v>40044400</v>
+      </c>
+      <c r="K17" s="3">
         <v>43649500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41909800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42003100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39536900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8573600</v>
+        <v>7473000</v>
       </c>
       <c r="E18" s="3">
-        <v>7418200</v>
+        <v>8363300</v>
       </c>
       <c r="F18" s="3">
-        <v>9998400</v>
+        <v>7236200</v>
       </c>
       <c r="G18" s="3">
-        <v>7482800</v>
+        <v>9753100</v>
       </c>
       <c r="H18" s="3">
-        <v>9752900</v>
+        <v>7299200</v>
       </c>
       <c r="I18" s="3">
-        <v>7454800</v>
+        <v>9513600</v>
       </c>
       <c r="J18" s="3">
+        <v>7271900</v>
+      </c>
+      <c r="K18" s="3">
         <v>9488500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5973800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9300900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7993700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1070,78 +1102,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1939100</v>
+        <v>2165000</v>
       </c>
       <c r="E20" s="3">
-        <v>2578900</v>
+        <v>1891600</v>
       </c>
       <c r="F20" s="3">
-        <v>2085300</v>
+        <v>2515600</v>
       </c>
       <c r="G20" s="3">
-        <v>2093400</v>
+        <v>2034200</v>
       </c>
       <c r="H20" s="3">
-        <v>1925600</v>
+        <v>2042000</v>
       </c>
       <c r="I20" s="3">
-        <v>1965800</v>
+        <v>1878400</v>
       </c>
       <c r="J20" s="3">
+        <v>1917600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1818300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4326900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1730000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1912100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23625700</v>
+        <v>9642800</v>
       </c>
       <c r="E21" s="3">
-        <v>10248500</v>
+        <v>23046100</v>
       </c>
       <c r="F21" s="3">
-        <v>23017100</v>
+        <v>9997100</v>
       </c>
       <c r="G21" s="3">
-        <v>10268100</v>
+        <v>22452400</v>
       </c>
       <c r="H21" s="3">
-        <v>22114700</v>
+        <v>10016200</v>
       </c>
       <c r="I21" s="3">
-        <v>9729200</v>
+        <v>21572200</v>
       </c>
       <c r="J21" s="3">
+        <v>9490500</v>
+      </c>
+      <c r="K21" s="3">
         <v>21094900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10979100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21114600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12039900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1175,78 +1214,87 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10512800</v>
+        <v>9638100</v>
       </c>
       <c r="E23" s="3">
-        <v>9997100</v>
+        <v>10254900</v>
       </c>
       <c r="F23" s="3">
-        <v>12083700</v>
+        <v>9751900</v>
       </c>
       <c r="G23" s="3">
-        <v>9576100</v>
+        <v>11787300</v>
       </c>
       <c r="H23" s="3">
-        <v>11678600</v>
+        <v>9341200</v>
       </c>
       <c r="I23" s="3">
-        <v>9420600</v>
+        <v>11392000</v>
       </c>
       <c r="J23" s="3">
+        <v>9189500</v>
+      </c>
+      <c r="K23" s="3">
         <v>11306800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10300700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11030900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9905800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2460800</v>
+        <v>2546000</v>
       </c>
       <c r="E24" s="3">
-        <v>2506200</v>
+        <v>2400500</v>
       </c>
       <c r="F24" s="3">
-        <v>2651100</v>
+        <v>2444700</v>
       </c>
       <c r="G24" s="3">
-        <v>2160100</v>
+        <v>2586000</v>
       </c>
       <c r="H24" s="3">
-        <v>2678500</v>
+        <v>2107100</v>
       </c>
       <c r="I24" s="3">
-        <v>2501900</v>
+        <v>2612800</v>
       </c>
       <c r="J24" s="3">
+        <v>2440500</v>
+      </c>
+      <c r="K24" s="3">
         <v>2609300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2694100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2512000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2408300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,78 +1328,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8052000</v>
+        <v>7092100</v>
       </c>
       <c r="E26" s="3">
-        <v>7490900</v>
+        <v>7854400</v>
       </c>
       <c r="F26" s="3">
-        <v>9432700</v>
+        <v>7307200</v>
       </c>
       <c r="G26" s="3">
-        <v>7416100</v>
+        <v>9201300</v>
       </c>
       <c r="H26" s="3">
-        <v>9000100</v>
+        <v>7234100</v>
       </c>
       <c r="I26" s="3">
-        <v>6918700</v>
+        <v>8779300</v>
       </c>
       <c r="J26" s="3">
+        <v>6749000</v>
+      </c>
+      <c r="K26" s="3">
         <v>8697500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7606600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8518900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7497500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8043900</v>
+        <v>7078900</v>
       </c>
       <c r="E27" s="3">
-        <v>7481000</v>
+        <v>7846600</v>
       </c>
       <c r="F27" s="3">
-        <v>9418200</v>
+        <v>7297500</v>
       </c>
       <c r="G27" s="3">
-        <v>7404100</v>
+        <v>9187100</v>
       </c>
       <c r="H27" s="3">
-        <v>8992600</v>
+        <v>7222500</v>
       </c>
       <c r="I27" s="3">
-        <v>6911300</v>
+        <v>8772000</v>
       </c>
       <c r="J27" s="3">
+        <v>6741700</v>
+      </c>
+      <c r="K27" s="3">
         <v>8690900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7599000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8509200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,8 +1442,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1420,8 +1480,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1518,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,78 +1556,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1939100</v>
+        <v>-2165000</v>
       </c>
       <c r="E32" s="3">
-        <v>-2578900</v>
+        <v>-1891600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2085300</v>
+        <v>-2515600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2093400</v>
+        <v>-2034200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1925600</v>
+        <v>-2042000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1965800</v>
+        <v>-1878400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1917600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1818300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4326900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1730000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1912100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8043900</v>
+        <v>7078900</v>
       </c>
       <c r="E33" s="3">
-        <v>7481000</v>
+        <v>7846600</v>
       </c>
       <c r="F33" s="3">
-        <v>9418200</v>
+        <v>7297500</v>
       </c>
       <c r="G33" s="3">
-        <v>7404100</v>
+        <v>9187100</v>
       </c>
       <c r="H33" s="3">
-        <v>8992600</v>
+        <v>7222500</v>
       </c>
       <c r="I33" s="3">
-        <v>6911300</v>
+        <v>8772000</v>
       </c>
       <c r="J33" s="3">
+        <v>6741700</v>
+      </c>
+      <c r="K33" s="3">
         <v>8690900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7599000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8509200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1595,83 +1670,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8043900</v>
+        <v>7078900</v>
       </c>
       <c r="E35" s="3">
-        <v>7481000</v>
+        <v>7846600</v>
       </c>
       <c r="F35" s="3">
-        <v>9418200</v>
+        <v>7297500</v>
       </c>
       <c r="G35" s="3">
-        <v>7404100</v>
+        <v>9187100</v>
       </c>
       <c r="H35" s="3">
-        <v>8992600</v>
+        <v>7222500</v>
       </c>
       <c r="I35" s="3">
-        <v>6911300</v>
+        <v>8772000</v>
       </c>
       <c r="J35" s="3">
+        <v>6741700</v>
+      </c>
+      <c r="K35" s="3">
         <v>8690900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7599000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8509200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1685,8 +1769,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1700,323 +1785,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10214500</v>
+        <v>24623600</v>
       </c>
       <c r="E41" s="3">
-        <v>8221700</v>
+        <v>9963900</v>
       </c>
       <c r="F41" s="3">
-        <v>11873100</v>
+        <v>8020000</v>
       </c>
       <c r="G41" s="3">
-        <v>17308900</v>
+        <v>11581800</v>
       </c>
       <c r="H41" s="3">
-        <v>11910000</v>
+        <v>16884200</v>
       </c>
       <c r="I41" s="3">
-        <v>12972500</v>
+        <v>11617800</v>
       </c>
       <c r="J41" s="3">
+        <v>12654200</v>
+      </c>
+      <c r="K41" s="3">
         <v>13745400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11849400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14964600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10734500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>50773300</v>
+        <v>34298300</v>
       </c>
       <c r="E42" s="3">
-        <v>52845400</v>
+        <v>49527600</v>
       </c>
       <c r="F42" s="3">
-        <v>55386000</v>
+        <v>51548900</v>
       </c>
       <c r="G42" s="3">
-        <v>49500700</v>
+        <v>54027200</v>
       </c>
       <c r="H42" s="3">
-        <v>56683400</v>
+        <v>48286300</v>
       </c>
       <c r="I42" s="3">
-        <v>52685000</v>
+        <v>55292700</v>
       </c>
       <c r="J42" s="3">
+        <v>51392500</v>
+      </c>
+      <c r="K42" s="3">
         <v>53061600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>50830000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>52932800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>51701400</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14022900</v>
+        <v>10421100</v>
       </c>
       <c r="E43" s="3">
-        <v>10565000</v>
+        <v>13678900</v>
       </c>
       <c r="F43" s="3">
-        <v>10536700</v>
+        <v>10305800</v>
       </c>
       <c r="G43" s="3">
-        <v>8191800</v>
+        <v>10278200</v>
       </c>
       <c r="H43" s="3">
-        <v>16147500</v>
+        <v>7990900</v>
       </c>
       <c r="I43" s="3">
-        <v>14808300</v>
+        <v>15751400</v>
       </c>
       <c r="J43" s="3">
+        <v>14445000</v>
+      </c>
+      <c r="K43" s="3">
         <v>5873600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6666900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5091800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7044000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1399400</v>
+        <v>1027000</v>
       </c>
       <c r="E44" s="3">
-        <v>1270800</v>
+        <v>1365000</v>
       </c>
       <c r="F44" s="3">
-        <v>1526800</v>
+        <v>1239600</v>
       </c>
       <c r="G44" s="3">
-        <v>1466700</v>
+        <v>1489300</v>
       </c>
       <c r="H44" s="3">
-        <v>1048400</v>
+        <v>1430700</v>
       </c>
       <c r="I44" s="3">
-        <v>1267200</v>
+        <v>1022700</v>
       </c>
       <c r="J44" s="3">
+        <v>1236100</v>
+      </c>
+      <c r="K44" s="3">
         <v>996800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1483200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>988000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2679100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3739700</v>
+        <v>3790000</v>
       </c>
       <c r="E45" s="3">
-        <v>3875500</v>
+        <v>3647900</v>
       </c>
       <c r="F45" s="3">
-        <v>3122800</v>
+        <v>3780500</v>
       </c>
       <c r="G45" s="3">
-        <v>3621900</v>
+        <v>3046200</v>
       </c>
       <c r="H45" s="3">
-        <v>2574200</v>
+        <v>3533000</v>
       </c>
       <c r="I45" s="3">
-        <v>2438900</v>
+        <v>2511000</v>
       </c>
       <c r="J45" s="3">
+        <v>2379000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1689800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1698100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2238300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2459700</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>80149600</v>
+        <v>74160000</v>
       </c>
       <c r="E46" s="3">
-        <v>76778400</v>
+        <v>78183300</v>
       </c>
       <c r="F46" s="3">
-        <v>82445500</v>
+        <v>74894800</v>
       </c>
       <c r="G46" s="3">
-        <v>80090000</v>
+        <v>80422800</v>
       </c>
       <c r="H46" s="3">
-        <v>88363400</v>
+        <v>78125100</v>
       </c>
       <c r="I46" s="3">
-        <v>84171800</v>
+        <v>86195600</v>
       </c>
       <c r="J46" s="3">
+        <v>82106800</v>
+      </c>
+      <c r="K46" s="3">
         <v>75367200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>72527500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76215500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>70813500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21378400</v>
+        <v>21797500</v>
       </c>
       <c r="E47" s="3">
-        <v>20935500</v>
+        <v>20853900</v>
       </c>
       <c r="F47" s="3">
-        <v>19625500</v>
+        <v>20421800</v>
       </c>
       <c r="G47" s="3">
-        <v>19017300</v>
+        <v>19144000</v>
       </c>
       <c r="H47" s="3">
-        <v>18344600</v>
+        <v>18550700</v>
       </c>
       <c r="I47" s="3">
-        <v>17802100</v>
+        <v>17894600</v>
       </c>
       <c r="J47" s="3">
+        <v>17365400</v>
+      </c>
+      <c r="K47" s="3">
         <v>25467100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25626400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10617700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10264300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>117810600</v>
+        <v>114363800</v>
       </c>
       <c r="E48" s="3">
-        <v>105985200</v>
+        <v>114920300</v>
       </c>
       <c r="F48" s="3">
-        <v>104632200</v>
+        <v>103385100</v>
       </c>
       <c r="G48" s="3">
-        <v>104186700</v>
+        <v>102065300</v>
       </c>
       <c r="H48" s="3">
-        <v>103873800</v>
+        <v>101630700</v>
       </c>
       <c r="I48" s="3">
-        <v>102187700</v>
+        <v>101325400</v>
       </c>
       <c r="J48" s="3">
+        <v>99680800</v>
+      </c>
+      <c r="K48" s="3">
         <v>98549100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>99975400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98354300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>183958500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5375300</v>
+        <v>5433000</v>
       </c>
       <c r="E49" s="3">
-        <v>5446900</v>
+        <v>5243500</v>
       </c>
       <c r="F49" s="3">
-        <v>5402000</v>
+        <v>5313300</v>
       </c>
       <c r="G49" s="3">
-        <v>5317900</v>
+        <v>5269500</v>
       </c>
       <c r="H49" s="3">
-        <v>5303600</v>
+        <v>5187500</v>
       </c>
       <c r="I49" s="3">
-        <v>5316100</v>
+        <v>5173500</v>
       </c>
       <c r="J49" s="3">
+        <v>5185700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5181200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5359200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5348100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5254400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2050,8 +2163,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2085,43 +2201,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11759600</v>
+        <v>12274100</v>
       </c>
       <c r="E52" s="3">
-        <v>11226300</v>
+        <v>11471100</v>
       </c>
       <c r="F52" s="3">
-        <v>12458200</v>
+        <v>10950900</v>
       </c>
       <c r="G52" s="3">
-        <v>9780900</v>
+        <v>12152600</v>
       </c>
       <c r="H52" s="3">
-        <v>10080600</v>
+        <v>9540900</v>
       </c>
       <c r="I52" s="3">
-        <v>8754400</v>
+        <v>9833300</v>
       </c>
       <c r="J52" s="3">
+        <v>8539700</v>
+      </c>
+      <c r="K52" s="3">
         <v>9339300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8425400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8750600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7892200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2155,43 +2277,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>236473500</v>
+        <v>228028400</v>
       </c>
       <c r="E54" s="3">
-        <v>220372400</v>
+        <v>230672100</v>
       </c>
       <c r="F54" s="3">
-        <v>224563400</v>
+        <v>214966000</v>
       </c>
       <c r="G54" s="3">
-        <v>218392800</v>
+        <v>219054200</v>
       </c>
       <c r="H54" s="3">
-        <v>225966100</v>
+        <v>213034900</v>
       </c>
       <c r="I54" s="3">
-        <v>218232200</v>
+        <v>220422400</v>
       </c>
       <c r="J54" s="3">
+        <v>212878300</v>
+      </c>
+      <c r="K54" s="3">
         <v>213903900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>211913900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>199286100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>196044700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,8 +2333,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2220,156 +2349,169 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23996300</v>
+        <v>23473300</v>
       </c>
       <c r="E57" s="3">
-        <v>27844900</v>
+        <v>23407600</v>
       </c>
       <c r="F57" s="3">
-        <v>30630700</v>
+        <v>27161800</v>
       </c>
       <c r="G57" s="3">
-        <v>33929000</v>
+        <v>29879200</v>
       </c>
       <c r="H57" s="3">
-        <v>34741000</v>
+        <v>33096600</v>
       </c>
       <c r="I57" s="3">
-        <v>36163300</v>
+        <v>33888700</v>
       </c>
       <c r="J57" s="3">
+        <v>35276100</v>
+      </c>
+      <c r="K57" s="3">
         <v>33700700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36245300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30427900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33194500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3361400</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+        <v>3172600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3279000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>717400</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>717100</v>
-      </c>
-      <c r="J58" s="3" t="s">
+        <v>699800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>699500</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>10100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>155300</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44634900</v>
+        <v>38025000</v>
       </c>
       <c r="E59" s="3">
-        <v>40221700</v>
+        <v>43539900</v>
       </c>
       <c r="F59" s="3">
-        <v>44869100</v>
+        <v>39235000</v>
       </c>
       <c r="G59" s="3">
-        <v>42112800</v>
+        <v>43768300</v>
       </c>
       <c r="H59" s="3">
-        <v>43558400</v>
+        <v>41079700</v>
       </c>
       <c r="I59" s="3">
-        <v>40080700</v>
+        <v>42489800</v>
       </c>
       <c r="J59" s="3">
+        <v>39097400</v>
+      </c>
+      <c r="K59" s="3">
         <v>41532300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38113800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35153400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>52049100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71992700</v>
+        <v>64670900</v>
       </c>
       <c r="E60" s="3">
-        <v>68066600</v>
+        <v>70226500</v>
       </c>
       <c r="F60" s="3">
-        <v>75499700</v>
+        <v>66396700</v>
       </c>
       <c r="G60" s="3">
-        <v>76041800</v>
+        <v>73647500</v>
       </c>
       <c r="H60" s="3">
-        <v>79016700</v>
+        <v>74176300</v>
       </c>
       <c r="I60" s="3">
-        <v>76961100</v>
+        <v>77078200</v>
       </c>
       <c r="J60" s="3">
+        <v>75073000</v>
+      </c>
+      <c r="K60" s="3">
         <v>75233000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>74359000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65591400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>65805900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8138600</v>
+        <v>7226800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>7939000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2384,54 +2526,60 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>716800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>741300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>741000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>867000</v>
+        <v>1154500</v>
       </c>
       <c r="E62" s="3">
-        <v>818300</v>
+        <v>845800</v>
       </c>
       <c r="F62" s="3">
-        <v>558000</v>
+        <v>798200</v>
       </c>
       <c r="G62" s="3">
-        <v>466300</v>
+        <v>544300</v>
       </c>
       <c r="H62" s="3">
-        <v>380500</v>
+        <v>454900</v>
       </c>
       <c r="I62" s="3">
-        <v>354000</v>
+        <v>371200</v>
       </c>
       <c r="J62" s="3">
+        <v>345300</v>
+      </c>
+      <c r="K62" s="3">
         <v>212400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>221700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>149600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>228000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2465,8 +2613,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2500,8 +2651,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2535,43 +2689,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>81494800</v>
+        <v>73544400</v>
       </c>
       <c r="E66" s="3">
-        <v>69373300</v>
+        <v>79495500</v>
       </c>
       <c r="F66" s="3">
-        <v>76537800</v>
+        <v>67671400</v>
       </c>
       <c r="G66" s="3">
-        <v>76973700</v>
+        <v>74660100</v>
       </c>
       <c r="H66" s="3">
-        <v>79851600</v>
+        <v>75085300</v>
       </c>
       <c r="I66" s="3">
-        <v>77762300</v>
+        <v>77892600</v>
       </c>
       <c r="J66" s="3">
+        <v>75854500</v>
+      </c>
+      <c r="K66" s="3">
         <v>76603800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75772100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66795300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>67060500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2585,8 +2745,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2620,8 +2781,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2655,8 +2819,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2690,8 +2857,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2725,43 +2895,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>97114000</v>
+        <v>97961600</v>
       </c>
       <c r="E72" s="3">
-        <v>93153100</v>
+        <v>94731500</v>
       </c>
       <c r="F72" s="3">
-        <v>90304200</v>
+        <v>90867800</v>
       </c>
       <c r="G72" s="3">
-        <v>83739500</v>
+        <v>88088700</v>
       </c>
       <c r="H72" s="3">
-        <v>88390400</v>
+        <v>81685100</v>
       </c>
       <c r="I72" s="3">
-        <v>82684900</v>
+        <v>86221900</v>
       </c>
       <c r="J72" s="3">
+        <v>80656400</v>
+      </c>
+      <c r="K72" s="3">
         <v>79591800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>76486200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>72928500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>70816700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2795,8 +2971,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2830,8 +3009,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2865,43 +3047,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>154978800</v>
+        <v>154484100</v>
       </c>
       <c r="E76" s="3">
-        <v>150999100</v>
+        <v>151176700</v>
       </c>
       <c r="F76" s="3">
-        <v>148025600</v>
+        <v>147294600</v>
       </c>
       <c r="G76" s="3">
-        <v>141419100</v>
+        <v>144394100</v>
       </c>
       <c r="H76" s="3">
-        <v>146114400</v>
+        <v>137949600</v>
       </c>
       <c r="I76" s="3">
-        <v>140469900</v>
+        <v>142529800</v>
       </c>
       <c r="J76" s="3">
+        <v>137023800</v>
+      </c>
+      <c r="K76" s="3">
         <v>137300000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>136141800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132490800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>128984200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2935,83 +3123,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8043900</v>
+        <v>7078900</v>
       </c>
       <c r="E81" s="3">
-        <v>7481000</v>
+        <v>7846600</v>
       </c>
       <c r="F81" s="3">
-        <v>9418200</v>
+        <v>7297500</v>
       </c>
       <c r="G81" s="3">
-        <v>7404100</v>
+        <v>9187100</v>
       </c>
       <c r="H81" s="3">
-        <v>8992600</v>
+        <v>7222500</v>
       </c>
       <c r="I81" s="3">
-        <v>6911300</v>
+        <v>8772000</v>
       </c>
       <c r="J81" s="3">
+        <v>6741700</v>
+      </c>
+      <c r="K81" s="3">
         <v>8690900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7599000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8509200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3025,8 +3222,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3060,8 +3258,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3095,8 +3296,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,8 +3334,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3165,8 +3372,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3200,8 +3410,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3235,43 +3448,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18104600</v>
+        <v>16992400</v>
       </c>
       <c r="E89" s="3">
-        <v>12602400</v>
+        <v>17660400</v>
       </c>
       <c r="F89" s="3">
-        <v>16976100</v>
+        <v>12293200</v>
       </c>
       <c r="G89" s="3">
-        <v>15388100</v>
+        <v>16559600</v>
       </c>
       <c r="H89" s="3">
-        <v>19838300</v>
+        <v>15010600</v>
       </c>
       <c r="I89" s="3">
-        <v>15754400</v>
+        <v>19351600</v>
       </c>
       <c r="J89" s="3">
+        <v>15367900</v>
+      </c>
+      <c r="K89" s="3">
         <v>20646600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15710800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19178700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13267900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3285,43 +3504,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12224500</v>
+        <v>-16398400</v>
       </c>
       <c r="E91" s="3">
-        <v>-16198200</v>
+        <v>-11924600</v>
       </c>
       <c r="F91" s="3">
-        <v>-11406700</v>
+        <v>-15800800</v>
       </c>
       <c r="G91" s="3">
-        <v>-15448100</v>
+        <v>-11126800</v>
       </c>
       <c r="H91" s="3">
-        <v>-12245700</v>
+        <v>-15069100</v>
       </c>
       <c r="I91" s="3">
-        <v>-15127800</v>
+        <v>-11945300</v>
       </c>
       <c r="J91" s="3">
+        <v>-14756700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11876400</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10353800</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3355,8 +3578,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3390,43 +3616,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10708600</v>
+        <v>1459600</v>
       </c>
       <c r="E94" s="3">
-        <v>-11999100</v>
+        <v>-10445900</v>
       </c>
       <c r="F94" s="3">
-        <v>-18451800</v>
+        <v>-11704700</v>
       </c>
       <c r="G94" s="3">
-        <v>1608400</v>
+        <v>-17999100</v>
       </c>
       <c r="H94" s="3">
-        <v>-16893800</v>
+        <v>1569000</v>
       </c>
       <c r="I94" s="3">
-        <v>-13536000</v>
+        <v>-16479300</v>
       </c>
       <c r="J94" s="3">
+        <v>-13204000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14374100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9892900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11291600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6494200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3440,8 +3672,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3475,8 +3708,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,8 +3746,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3545,8 +3784,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3580,109 +3822,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5405000</v>
+        <v>-3811100</v>
       </c>
       <c r="E100" s="3">
-        <v>-4296900</v>
+        <v>-5272400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3999100</v>
+        <v>-4191500</v>
       </c>
       <c r="G100" s="3">
-        <v>-11565200</v>
+        <v>-3901000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3963800</v>
+        <v>-11281500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3026300</v>
+        <v>-3866500</v>
       </c>
       <c r="J100" s="3">
+        <v>-2952000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3998200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9657600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3181300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2037300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1900</v>
+        <v>18800</v>
       </c>
       <c r="E101" s="3">
-        <v>42200</v>
+        <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>39000</v>
+        <v>41100</v>
       </c>
       <c r="G101" s="3">
-        <v>-32400</v>
+        <v>38100</v>
       </c>
       <c r="H101" s="3">
-        <v>-43200</v>
+        <v>-31600</v>
       </c>
       <c r="I101" s="3">
-        <v>35000</v>
+        <v>-42100</v>
       </c>
       <c r="J101" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K101" s="3">
         <v>15400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>36700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1992800</v>
+        <v>14659700</v>
       </c>
       <c r="E102" s="3">
-        <v>-3651400</v>
+        <v>1943900</v>
       </c>
       <c r="F102" s="3">
-        <v>-5435700</v>
+        <v>-3561800</v>
       </c>
       <c r="G102" s="3">
-        <v>5398900</v>
+        <v>-5302400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1062500</v>
+        <v>5266400</v>
       </c>
       <c r="I102" s="3">
-        <v>-772900</v>
+        <v>-1036400</v>
       </c>
       <c r="J102" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="K102" s="3">
         <v>2289700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3803000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4697900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHL_QTR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49894300</v>
+        <v>51773000</v>
       </c>
       <c r="E8" s="3">
-        <v>54504200</v>
+        <v>56556500</v>
       </c>
       <c r="F8" s="3">
-        <v>48284400</v>
+        <v>50102500</v>
       </c>
       <c r="G8" s="3">
-        <v>54840800</v>
+        <v>56905800</v>
       </c>
       <c r="H8" s="3">
-        <v>49216000</v>
+        <v>51069100</v>
       </c>
       <c r="I8" s="3">
-        <v>54426400</v>
+        <v>56475700</v>
       </c>
       <c r="J8" s="3">
-        <v>47316300</v>
+        <v>49097900</v>
       </c>
       <c r="K8" s="3">
         <v>53138000</v>
@@ -760,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4611300</v>
+        <v>4784900</v>
       </c>
       <c r="E9" s="3">
-        <v>5544900</v>
+        <v>5753700</v>
       </c>
       <c r="F9" s="3">
-        <v>8844900</v>
+        <v>9178000</v>
       </c>
       <c r="G9" s="3">
-        <v>9964700</v>
+        <v>10339900</v>
       </c>
       <c r="H9" s="3">
-        <v>9130400</v>
+        <v>9474200</v>
       </c>
       <c r="I9" s="3">
-        <v>10711100</v>
+        <v>11114500</v>
       </c>
       <c r="J9" s="3">
-        <v>9667500</v>
+        <v>10031500</v>
       </c>
       <c r="K9" s="3">
         <v>11355200</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>45283100</v>
+        <v>46988100</v>
       </c>
       <c r="E10" s="3">
-        <v>48959300</v>
+        <v>50802800</v>
       </c>
       <c r="F10" s="3">
-        <v>39439500</v>
+        <v>40924500</v>
       </c>
       <c r="G10" s="3">
-        <v>44876100</v>
+        <v>46565800</v>
       </c>
       <c r="H10" s="3">
-        <v>40085500</v>
+        <v>41594900</v>
       </c>
       <c r="I10" s="3">
-        <v>43715200</v>
+        <v>45361300</v>
       </c>
       <c r="J10" s="3">
-        <v>37648800</v>
+        <v>39066400</v>
       </c>
       <c r="K10" s="3">
         <v>41782800</v>
@@ -858,13 +858,13 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>2895800</v>
+        <v>3004800</v>
       </c>
       <c r="G12" s="3">
-        <v>3262600</v>
+        <v>3385500</v>
       </c>
       <c r="H12" s="3">
-        <v>5320700</v>
+        <v>5521100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -928,25 +928,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>304400</v>
+        <v>334600</v>
       </c>
       <c r="E14" s="3">
-        <v>135900</v>
+        <v>97400</v>
       </c>
       <c r="F14" s="3">
-        <v>175000</v>
+        <v>181500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>1762500</v>
+        <v>1828900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>1010000</v>
+        <v>1048000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -966,25 +966,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12796000</v>
+        <v>13277800</v>
       </c>
       <c r="E15" s="3">
-        <v>12791200</v>
+        <v>13272900</v>
       </c>
       <c r="F15" s="3">
-        <v>10910300</v>
+        <v>11321100</v>
       </c>
       <c r="G15" s="3">
-        <v>10665100</v>
+        <v>11066700</v>
       </c>
       <c r="H15" s="3">
-        <v>10855200</v>
+        <v>11263900</v>
       </c>
       <c r="I15" s="3">
-        <v>10180100</v>
+        <v>10563400</v>
       </c>
       <c r="J15" s="3">
-        <v>9849000</v>
+        <v>10219800</v>
       </c>
       <c r="K15" s="3">
         <v>9788100</v>
@@ -1017,25 +1017,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42421300</v>
+        <v>44018600</v>
       </c>
       <c r="E17" s="3">
-        <v>46140900</v>
+        <v>47878300</v>
       </c>
       <c r="F17" s="3">
-        <v>41048200</v>
+        <v>42593800</v>
       </c>
       <c r="G17" s="3">
-        <v>45087700</v>
+        <v>46785400</v>
       </c>
       <c r="H17" s="3">
-        <v>41916800</v>
+        <v>43495100</v>
       </c>
       <c r="I17" s="3">
-        <v>44912700</v>
+        <v>46603900</v>
       </c>
       <c r="J17" s="3">
-        <v>40044400</v>
+        <v>41552200</v>
       </c>
       <c r="K17" s="3">
         <v>43649500</v>
@@ -1055,25 +1055,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7473000</v>
+        <v>7754400</v>
       </c>
       <c r="E18" s="3">
-        <v>8363300</v>
+        <v>8678200</v>
       </c>
       <c r="F18" s="3">
-        <v>7236200</v>
+        <v>7508700</v>
       </c>
       <c r="G18" s="3">
-        <v>9753100</v>
+        <v>10120400</v>
       </c>
       <c r="H18" s="3">
-        <v>7299200</v>
+        <v>7574000</v>
       </c>
       <c r="I18" s="3">
-        <v>9513600</v>
+        <v>9871900</v>
       </c>
       <c r="J18" s="3">
-        <v>7271900</v>
+        <v>7545700</v>
       </c>
       <c r="K18" s="3">
         <v>9488500</v>
@@ -1109,25 +1109,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2165000</v>
+        <v>2246600</v>
       </c>
       <c r="E20" s="3">
-        <v>1891600</v>
+        <v>1962800</v>
       </c>
       <c r="F20" s="3">
-        <v>2515600</v>
+        <v>2610400</v>
       </c>
       <c r="G20" s="3">
-        <v>2034200</v>
+        <v>2110800</v>
       </c>
       <c r="H20" s="3">
-        <v>2042000</v>
+        <v>2118900</v>
       </c>
       <c r="I20" s="3">
-        <v>1878400</v>
+        <v>1949100</v>
       </c>
       <c r="J20" s="3">
-        <v>1917600</v>
+        <v>1989800</v>
       </c>
       <c r="K20" s="3">
         <v>1818300</v>
@@ -1147,25 +1147,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9642800</v>
+        <v>10005900</v>
       </c>
       <c r="E21" s="3">
-        <v>23046100</v>
+        <v>23913900</v>
       </c>
       <c r="F21" s="3">
-        <v>9997100</v>
+        <v>10373500</v>
       </c>
       <c r="G21" s="3">
-        <v>22452400</v>
+        <v>23297800</v>
       </c>
       <c r="H21" s="3">
-        <v>10016200</v>
+        <v>10393400</v>
       </c>
       <c r="I21" s="3">
-        <v>21572200</v>
+        <v>22384400</v>
       </c>
       <c r="J21" s="3">
-        <v>9490500</v>
+        <v>9847900</v>
       </c>
       <c r="K21" s="3">
         <v>21094900</v>
@@ -1223,25 +1223,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9638100</v>
+        <v>10001000</v>
       </c>
       <c r="E23" s="3">
-        <v>10254900</v>
+        <v>10641000</v>
       </c>
       <c r="F23" s="3">
-        <v>9751900</v>
+        <v>10119000</v>
       </c>
       <c r="G23" s="3">
-        <v>11787300</v>
+        <v>12231100</v>
       </c>
       <c r="H23" s="3">
-        <v>9341200</v>
+        <v>9692900</v>
       </c>
       <c r="I23" s="3">
-        <v>11392000</v>
+        <v>11821000</v>
       </c>
       <c r="J23" s="3">
-        <v>9189500</v>
+        <v>9535500</v>
       </c>
       <c r="K23" s="3">
         <v>11306800</v>
@@ -1261,25 +1261,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2546000</v>
+        <v>2641900</v>
       </c>
       <c r="E24" s="3">
-        <v>2400500</v>
+        <v>2490800</v>
       </c>
       <c r="F24" s="3">
-        <v>2444700</v>
+        <v>2536700</v>
       </c>
       <c r="G24" s="3">
-        <v>2586000</v>
+        <v>2683400</v>
       </c>
       <c r="H24" s="3">
-        <v>2107100</v>
+        <v>2186400</v>
       </c>
       <c r="I24" s="3">
-        <v>2612800</v>
+        <v>2711200</v>
       </c>
       <c r="J24" s="3">
-        <v>2440500</v>
+        <v>2532400</v>
       </c>
       <c r="K24" s="3">
         <v>2609300</v>
@@ -1337,25 +1337,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7092100</v>
+        <v>7359100</v>
       </c>
       <c r="E26" s="3">
-        <v>7854400</v>
+        <v>8150200</v>
       </c>
       <c r="F26" s="3">
-        <v>7307200</v>
+        <v>7582300</v>
       </c>
       <c r="G26" s="3">
-        <v>9201300</v>
+        <v>9547700</v>
       </c>
       <c r="H26" s="3">
-        <v>7234100</v>
+        <v>7506500</v>
       </c>
       <c r="I26" s="3">
-        <v>8779300</v>
+        <v>9109800</v>
       </c>
       <c r="J26" s="3">
-        <v>6749000</v>
+        <v>7003100</v>
       </c>
       <c r="K26" s="3">
         <v>8697500</v>
@@ -1375,25 +1375,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7078900</v>
+        <v>7345400</v>
       </c>
       <c r="E27" s="3">
-        <v>7846600</v>
+        <v>8142000</v>
       </c>
       <c r="F27" s="3">
-        <v>7297500</v>
+        <v>7572300</v>
       </c>
       <c r="G27" s="3">
-        <v>9187100</v>
+        <v>9533000</v>
       </c>
       <c r="H27" s="3">
-        <v>7222500</v>
+        <v>7494400</v>
       </c>
       <c r="I27" s="3">
-        <v>8772000</v>
+        <v>9102300</v>
       </c>
       <c r="J27" s="3">
-        <v>6741700</v>
+        <v>6995600</v>
       </c>
       <c r="K27" s="3">
         <v>8690900</v>
@@ -1565,25 +1565,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2165000</v>
+        <v>-2246600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1891600</v>
+        <v>-1962800</v>
       </c>
       <c r="F32" s="3">
-        <v>-2515600</v>
+        <v>-2610400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2034200</v>
+        <v>-2110800</v>
       </c>
       <c r="H32" s="3">
-        <v>-2042000</v>
+        <v>-2118900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1878400</v>
+        <v>-1949100</v>
       </c>
       <c r="J32" s="3">
-        <v>-1917600</v>
+        <v>-1989800</v>
       </c>
       <c r="K32" s="3">
         <v>-1818300</v>
@@ -1603,25 +1603,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7078900</v>
+        <v>7345400</v>
       </c>
       <c r="E33" s="3">
-        <v>7846600</v>
+        <v>8142000</v>
       </c>
       <c r="F33" s="3">
-        <v>7297500</v>
+        <v>7572300</v>
       </c>
       <c r="G33" s="3">
-        <v>9187100</v>
+        <v>9533000</v>
       </c>
       <c r="H33" s="3">
-        <v>7222500</v>
+        <v>7494400</v>
       </c>
       <c r="I33" s="3">
-        <v>8772000</v>
+        <v>9102300</v>
       </c>
       <c r="J33" s="3">
-        <v>6741700</v>
+        <v>6995600</v>
       </c>
       <c r="K33" s="3">
         <v>8690900</v>
@@ -1679,25 +1679,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7078900</v>
+        <v>7345400</v>
       </c>
       <c r="E35" s="3">
-        <v>7846600</v>
+        <v>8142000</v>
       </c>
       <c r="F35" s="3">
-        <v>7297500</v>
+        <v>7572300</v>
       </c>
       <c r="G35" s="3">
-        <v>9187100</v>
+        <v>9533000</v>
       </c>
       <c r="H35" s="3">
-        <v>7222500</v>
+        <v>7494400</v>
       </c>
       <c r="I35" s="3">
-        <v>8772000</v>
+        <v>9102300</v>
       </c>
       <c r="J35" s="3">
-        <v>6741700</v>
+        <v>6995600</v>
       </c>
       <c r="K35" s="3">
         <v>8690900</v>
@@ -1792,25 +1792,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24623600</v>
+        <v>25550700</v>
       </c>
       <c r="E41" s="3">
-        <v>9963900</v>
+        <v>10339100</v>
       </c>
       <c r="F41" s="3">
-        <v>8020000</v>
+        <v>8322000</v>
       </c>
       <c r="G41" s="3">
-        <v>11581800</v>
+        <v>12017900</v>
       </c>
       <c r="H41" s="3">
-        <v>16884200</v>
+        <v>17520000</v>
       </c>
       <c r="I41" s="3">
-        <v>11617800</v>
+        <v>12055300</v>
       </c>
       <c r="J41" s="3">
-        <v>12654200</v>
+        <v>13130700</v>
       </c>
       <c r="K41" s="3">
         <v>13745400</v>
@@ -1830,25 +1830,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34298300</v>
+        <v>35589800</v>
       </c>
       <c r="E42" s="3">
-        <v>49527600</v>
+        <v>51392500</v>
       </c>
       <c r="F42" s="3">
-        <v>51548900</v>
+        <v>53490000</v>
       </c>
       <c r="G42" s="3">
-        <v>54027200</v>
+        <v>56061500</v>
       </c>
       <c r="H42" s="3">
-        <v>48286300</v>
+        <v>50104500</v>
       </c>
       <c r="I42" s="3">
-        <v>55292700</v>
+        <v>57374700</v>
       </c>
       <c r="J42" s="3">
-        <v>51392500</v>
+        <v>53327600</v>
       </c>
       <c r="K42" s="3">
         <v>53061600</v>
@@ -1868,25 +1868,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10421100</v>
+        <v>10813500</v>
       </c>
       <c r="E43" s="3">
-        <v>13678900</v>
+        <v>14193900</v>
       </c>
       <c r="F43" s="3">
-        <v>10305800</v>
+        <v>10693900</v>
       </c>
       <c r="G43" s="3">
-        <v>10278200</v>
+        <v>10665300</v>
       </c>
       <c r="H43" s="3">
-        <v>7990900</v>
+        <v>8291800</v>
       </c>
       <c r="I43" s="3">
-        <v>15751400</v>
+        <v>16344500</v>
       </c>
       <c r="J43" s="3">
-        <v>14445000</v>
+        <v>14988900</v>
       </c>
       <c r="K43" s="3">
         <v>5873600</v>
@@ -1906,25 +1906,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1027000</v>
+        <v>1065700</v>
       </c>
       <c r="E44" s="3">
-        <v>1365000</v>
+        <v>1416400</v>
       </c>
       <c r="F44" s="3">
-        <v>1239600</v>
+        <v>1286300</v>
       </c>
       <c r="G44" s="3">
-        <v>1489300</v>
+        <v>1545400</v>
       </c>
       <c r="H44" s="3">
-        <v>1430700</v>
+        <v>1484500</v>
       </c>
       <c r="I44" s="3">
-        <v>1022700</v>
+        <v>1061200</v>
       </c>
       <c r="J44" s="3">
-        <v>1236100</v>
+        <v>1282700</v>
       </c>
       <c r="K44" s="3">
         <v>996800</v>
@@ -1944,25 +1944,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3790000</v>
+        <v>3932700</v>
       </c>
       <c r="E45" s="3">
-        <v>3647900</v>
+        <v>3785300</v>
       </c>
       <c r="F45" s="3">
-        <v>3780500</v>
+        <v>3922800</v>
       </c>
       <c r="G45" s="3">
-        <v>3046200</v>
+        <v>3160900</v>
       </c>
       <c r="H45" s="3">
-        <v>3533000</v>
+        <v>3666000</v>
       </c>
       <c r="I45" s="3">
-        <v>2511000</v>
+        <v>2605600</v>
       </c>
       <c r="J45" s="3">
-        <v>2379000</v>
+        <v>2468600</v>
       </c>
       <c r="K45" s="3">
         <v>1689800</v>
@@ -1982,25 +1982,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>74160000</v>
+        <v>76952400</v>
       </c>
       <c r="E46" s="3">
-        <v>78183300</v>
+        <v>81127200</v>
       </c>
       <c r="F46" s="3">
-        <v>74894800</v>
+        <v>77714900</v>
       </c>
       <c r="G46" s="3">
-        <v>80422800</v>
+        <v>83451000</v>
       </c>
       <c r="H46" s="3">
-        <v>78125100</v>
+        <v>81066800</v>
       </c>
       <c r="I46" s="3">
-        <v>86195600</v>
+        <v>89441200</v>
       </c>
       <c r="J46" s="3">
-        <v>82106800</v>
+        <v>85198500</v>
       </c>
       <c r="K46" s="3">
         <v>75367200</v>
@@ -2020,25 +2020,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21797500</v>
+        <v>22618300</v>
       </c>
       <c r="E47" s="3">
-        <v>20853900</v>
+        <v>21639100</v>
       </c>
       <c r="F47" s="3">
-        <v>20421800</v>
+        <v>21190800</v>
       </c>
       <c r="G47" s="3">
-        <v>19144000</v>
+        <v>19864800</v>
       </c>
       <c r="H47" s="3">
-        <v>18550700</v>
+        <v>19249200</v>
       </c>
       <c r="I47" s="3">
-        <v>17894600</v>
+        <v>18568400</v>
       </c>
       <c r="J47" s="3">
-        <v>17365400</v>
+        <v>18019300</v>
       </c>
       <c r="K47" s="3">
         <v>25467100</v>
@@ -2058,25 +2058,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>114363800</v>
+        <v>118670000</v>
       </c>
       <c r="E48" s="3">
-        <v>114920300</v>
+        <v>119247500</v>
       </c>
       <c r="F48" s="3">
-        <v>103385100</v>
+        <v>107277900</v>
       </c>
       <c r="G48" s="3">
-        <v>102065300</v>
+        <v>105908400</v>
       </c>
       <c r="H48" s="3">
-        <v>101630700</v>
+        <v>105457500</v>
       </c>
       <c r="I48" s="3">
-        <v>101325400</v>
+        <v>105140700</v>
       </c>
       <c r="J48" s="3">
-        <v>99680800</v>
+        <v>103434100</v>
       </c>
       <c r="K48" s="3">
         <v>98549100</v>
@@ -2096,25 +2096,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5433000</v>
+        <v>5637500</v>
       </c>
       <c r="E49" s="3">
-        <v>5243500</v>
+        <v>5440900</v>
       </c>
       <c r="F49" s="3">
-        <v>5313300</v>
+        <v>5513400</v>
       </c>
       <c r="G49" s="3">
-        <v>5269500</v>
+        <v>5467900</v>
       </c>
       <c r="H49" s="3">
-        <v>5187500</v>
+        <v>5382800</v>
       </c>
       <c r="I49" s="3">
-        <v>5173500</v>
+        <v>5368300</v>
       </c>
       <c r="J49" s="3">
-        <v>5185700</v>
+        <v>5380900</v>
       </c>
       <c r="K49" s="3">
         <v>5181200</v>
@@ -2210,25 +2210,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12274100</v>
+        <v>12736200</v>
       </c>
       <c r="E52" s="3">
-        <v>11471100</v>
+        <v>11903100</v>
       </c>
       <c r="F52" s="3">
-        <v>10950900</v>
+        <v>11363200</v>
       </c>
       <c r="G52" s="3">
-        <v>12152600</v>
+        <v>12610200</v>
       </c>
       <c r="H52" s="3">
-        <v>9540900</v>
+        <v>9900200</v>
       </c>
       <c r="I52" s="3">
-        <v>9833300</v>
+        <v>10203600</v>
       </c>
       <c r="J52" s="3">
-        <v>8539700</v>
+        <v>8861200</v>
       </c>
       <c r="K52" s="3">
         <v>9339300</v>
@@ -2286,25 +2286,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>228028400</v>
+        <v>236614500</v>
       </c>
       <c r="E54" s="3">
-        <v>230672100</v>
+        <v>239357800</v>
       </c>
       <c r="F54" s="3">
-        <v>214966000</v>
+        <v>223060200</v>
       </c>
       <c r="G54" s="3">
-        <v>219054200</v>
+        <v>227302400</v>
       </c>
       <c r="H54" s="3">
-        <v>213034900</v>
+        <v>221056500</v>
       </c>
       <c r="I54" s="3">
-        <v>220422400</v>
+        <v>228722100</v>
       </c>
       <c r="J54" s="3">
-        <v>212878300</v>
+        <v>220894000</v>
       </c>
       <c r="K54" s="3">
         <v>213903900</v>
@@ -2356,25 +2356,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23473300</v>
+        <v>24357100</v>
       </c>
       <c r="E57" s="3">
-        <v>23407600</v>
+        <v>24289000</v>
       </c>
       <c r="F57" s="3">
-        <v>27161800</v>
+        <v>28184500</v>
       </c>
       <c r="G57" s="3">
-        <v>29879200</v>
+        <v>31004300</v>
       </c>
       <c r="H57" s="3">
-        <v>33096600</v>
+        <v>34342800</v>
       </c>
       <c r="I57" s="3">
-        <v>33888700</v>
+        <v>35164700</v>
       </c>
       <c r="J57" s="3">
-        <v>35276100</v>
+        <v>36604400</v>
       </c>
       <c r="K57" s="3">
         <v>33700700</v>
@@ -2394,10 +2394,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3172600</v>
+        <v>3292100</v>
       </c>
       <c r="E58" s="3">
-        <v>3279000</v>
+        <v>3402400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>699800</v>
+        <v>726200</v>
       </c>
       <c r="J58" s="3">
-        <v>699500</v>
+        <v>725900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2432,25 +2432,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38025000</v>
+        <v>39456800</v>
       </c>
       <c r="E59" s="3">
-        <v>43539900</v>
+        <v>45179300</v>
       </c>
       <c r="F59" s="3">
-        <v>39235000</v>
+        <v>40712300</v>
       </c>
       <c r="G59" s="3">
-        <v>43768300</v>
+        <v>45416300</v>
       </c>
       <c r="H59" s="3">
-        <v>41079700</v>
+        <v>42626500</v>
       </c>
       <c r="I59" s="3">
-        <v>42489800</v>
+        <v>44089600</v>
       </c>
       <c r="J59" s="3">
-        <v>39097400</v>
+        <v>40569600</v>
       </c>
       <c r="K59" s="3">
         <v>41532300</v>
@@ -2470,25 +2470,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64670900</v>
+        <v>67106000</v>
       </c>
       <c r="E60" s="3">
-        <v>70226500</v>
+        <v>72870800</v>
       </c>
       <c r="F60" s="3">
-        <v>66396700</v>
+        <v>68896800</v>
       </c>
       <c r="G60" s="3">
-        <v>73647500</v>
+        <v>76420600</v>
       </c>
       <c r="H60" s="3">
-        <v>74176300</v>
+        <v>76969300</v>
       </c>
       <c r="I60" s="3">
-        <v>77078200</v>
+        <v>79980500</v>
       </c>
       <c r="J60" s="3">
-        <v>75073000</v>
+        <v>77899800</v>
       </c>
       <c r="K60" s="3">
         <v>75233000</v>
@@ -2508,10 +2508,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7226800</v>
+        <v>7499000</v>
       </c>
       <c r="E61" s="3">
-        <v>7939000</v>
+        <v>8237900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2546,25 +2546,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1154500</v>
+        <v>1198000</v>
       </c>
       <c r="E62" s="3">
-        <v>845800</v>
+        <v>877600</v>
       </c>
       <c r="F62" s="3">
-        <v>798200</v>
+        <v>828200</v>
       </c>
       <c r="G62" s="3">
-        <v>544300</v>
+        <v>564800</v>
       </c>
       <c r="H62" s="3">
-        <v>454900</v>
+        <v>472000</v>
       </c>
       <c r="I62" s="3">
-        <v>371200</v>
+        <v>385100</v>
       </c>
       <c r="J62" s="3">
-        <v>345300</v>
+        <v>358300</v>
       </c>
       <c r="K62" s="3">
         <v>212400</v>
@@ -2698,25 +2698,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73544400</v>
+        <v>76313600</v>
       </c>
       <c r="E66" s="3">
-        <v>79495500</v>
+        <v>82488800</v>
       </c>
       <c r="F66" s="3">
-        <v>67671400</v>
+        <v>70219400</v>
       </c>
       <c r="G66" s="3">
-        <v>74660100</v>
+        <v>77471300</v>
       </c>
       <c r="H66" s="3">
-        <v>75085300</v>
+        <v>77912600</v>
       </c>
       <c r="I66" s="3">
-        <v>77892600</v>
+        <v>80825600</v>
       </c>
       <c r="J66" s="3">
-        <v>75854500</v>
+        <v>78710700</v>
       </c>
       <c r="K66" s="3">
         <v>76603800</v>
@@ -2904,25 +2904,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>97961600</v>
+        <v>101650300</v>
       </c>
       <c r="E72" s="3">
-        <v>94731500</v>
+        <v>98298500</v>
       </c>
       <c r="F72" s="3">
-        <v>90867800</v>
+        <v>94289300</v>
       </c>
       <c r="G72" s="3">
-        <v>88088700</v>
+        <v>91405600</v>
       </c>
       <c r="H72" s="3">
-        <v>81685100</v>
+        <v>84760900</v>
       </c>
       <c r="I72" s="3">
-        <v>86221900</v>
+        <v>89468500</v>
       </c>
       <c r="J72" s="3">
-        <v>80656400</v>
+        <v>83693400</v>
       </c>
       <c r="K72" s="3">
         <v>79591800</v>
@@ -3056,25 +3056,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>154484100</v>
+        <v>160301000</v>
       </c>
       <c r="E76" s="3">
-        <v>151176700</v>
+        <v>156869000</v>
       </c>
       <c r="F76" s="3">
-        <v>147294600</v>
+        <v>152840800</v>
       </c>
       <c r="G76" s="3">
-        <v>144394100</v>
+        <v>149831000</v>
       </c>
       <c r="H76" s="3">
-        <v>137949600</v>
+        <v>143143900</v>
       </c>
       <c r="I76" s="3">
-        <v>142529800</v>
+        <v>147896600</v>
       </c>
       <c r="J76" s="3">
-        <v>137023800</v>
+        <v>142183200</v>
       </c>
       <c r="K76" s="3">
         <v>137300000</v>
@@ -3175,25 +3175,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7078900</v>
+        <v>7345400</v>
       </c>
       <c r="E81" s="3">
-        <v>7846600</v>
+        <v>8142000</v>
       </c>
       <c r="F81" s="3">
-        <v>7297500</v>
+        <v>7572300</v>
       </c>
       <c r="G81" s="3">
-        <v>9187100</v>
+        <v>9533000</v>
       </c>
       <c r="H81" s="3">
-        <v>7222500</v>
+        <v>7494400</v>
       </c>
       <c r="I81" s="3">
-        <v>8772000</v>
+        <v>9102300</v>
       </c>
       <c r="J81" s="3">
-        <v>6741700</v>
+        <v>6995600</v>
       </c>
       <c r="K81" s="3">
         <v>8690900</v>
@@ -3457,25 +3457,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>16992400</v>
+        <v>17632200</v>
       </c>
       <c r="E89" s="3">
-        <v>17660400</v>
+        <v>18325400</v>
       </c>
       <c r="F89" s="3">
-        <v>12293200</v>
+        <v>12756100</v>
       </c>
       <c r="G89" s="3">
-        <v>16559600</v>
+        <v>17183200</v>
       </c>
       <c r="H89" s="3">
-        <v>15010600</v>
+        <v>15575800</v>
       </c>
       <c r="I89" s="3">
-        <v>19351600</v>
+        <v>20080200</v>
       </c>
       <c r="J89" s="3">
-        <v>15367900</v>
+        <v>15946500</v>
       </c>
       <c r="K89" s="3">
         <v>20646600</v>
@@ -3511,25 +3511,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16398400</v>
+        <v>-17015900</v>
       </c>
       <c r="E91" s="3">
-        <v>-11924600</v>
+        <v>-12373600</v>
       </c>
       <c r="F91" s="3">
-        <v>-15800800</v>
+        <v>-16395700</v>
       </c>
       <c r="G91" s="3">
-        <v>-11126800</v>
+        <v>-11545800</v>
       </c>
       <c r="H91" s="3">
-        <v>-15069100</v>
+        <v>-15636500</v>
       </c>
       <c r="I91" s="3">
-        <v>-11945300</v>
+        <v>-12395100</v>
       </c>
       <c r="J91" s="3">
-        <v>-14756700</v>
+        <v>-15312300</v>
       </c>
       <c r="K91" s="3">
         <v>-11876400</v>
@@ -3625,25 +3625,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1459600</v>
+        <v>1514600</v>
       </c>
       <c r="E94" s="3">
-        <v>-10445900</v>
+        <v>-10839200</v>
       </c>
       <c r="F94" s="3">
-        <v>-11704700</v>
+        <v>-12145400</v>
       </c>
       <c r="G94" s="3">
-        <v>-17999100</v>
+        <v>-18676900</v>
       </c>
       <c r="H94" s="3">
-        <v>1569000</v>
+        <v>1628000</v>
       </c>
       <c r="I94" s="3">
-        <v>-16479300</v>
+        <v>-17099800</v>
       </c>
       <c r="J94" s="3">
-        <v>-13204000</v>
+        <v>-13701100</v>
       </c>
       <c r="K94" s="3">
         <v>-14374100</v>
@@ -3831,25 +3831,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3811100</v>
+        <v>-3954600</v>
       </c>
       <c r="E100" s="3">
-        <v>-5272400</v>
+        <v>-5471000</v>
       </c>
       <c r="F100" s="3">
-        <v>-4191500</v>
+        <v>-4349300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3901000</v>
+        <v>-4047900</v>
       </c>
       <c r="H100" s="3">
-        <v>-11281500</v>
+        <v>-11706300</v>
       </c>
       <c r="I100" s="3">
-        <v>-3866500</v>
+        <v>-4012100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2952000</v>
+        <v>-3063200</v>
       </c>
       <c r="K100" s="3">
         <v>-3998200</v>
@@ -3869,25 +3869,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="E101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F101" s="3">
-        <v>41100</v>
+        <v>42700</v>
       </c>
       <c r="G101" s="3">
-        <v>38100</v>
+        <v>39500</v>
       </c>
       <c r="H101" s="3">
-        <v>-31600</v>
+        <v>-32800</v>
       </c>
       <c r="I101" s="3">
-        <v>-42100</v>
+        <v>-43700</v>
       </c>
       <c r="J101" s="3">
-        <v>34200</v>
+        <v>35400</v>
       </c>
       <c r="K101" s="3">
         <v>15400</v>
@@ -3907,25 +3907,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14659700</v>
+        <v>15211700</v>
       </c>
       <c r="E102" s="3">
-        <v>1943900</v>
+        <v>2017100</v>
       </c>
       <c r="F102" s="3">
-        <v>-3561800</v>
+        <v>-3696000</v>
       </c>
       <c r="G102" s="3">
-        <v>-5302400</v>
+        <v>-5502000</v>
       </c>
       <c r="H102" s="3">
-        <v>5266400</v>
+        <v>5464700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1036400</v>
+        <v>-1075400</v>
       </c>
       <c r="J102" s="3">
-        <v>-754000</v>
+        <v>-782400</v>
       </c>
       <c r="K102" s="3">
         <v>2289700</v>

--- a/AAII_Financials/Quarterly/CHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>CHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,185 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>51773000</v>
+        <v>59306000</v>
       </c>
       <c r="E8" s="3">
-        <v>56556500</v>
+        <v>54229300</v>
       </c>
       <c r="F8" s="3">
-        <v>50102500</v>
+        <v>59239600</v>
       </c>
       <c r="G8" s="3">
-        <v>56905800</v>
+        <v>52479400</v>
       </c>
       <c r="H8" s="3">
-        <v>51069100</v>
+        <v>59605500</v>
       </c>
       <c r="I8" s="3">
-        <v>56475700</v>
+        <v>53491900</v>
       </c>
       <c r="J8" s="3">
+        <v>59155100</v>
+      </c>
+      <c r="K8" s="3">
         <v>49097900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53138000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47883600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51304000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47530600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4784900</v>
+        <v>4783000</v>
       </c>
       <c r="E9" s="3">
-        <v>5753700</v>
+        <v>5011900</v>
       </c>
       <c r="F9" s="3">
-        <v>9178000</v>
+        <v>6026700</v>
       </c>
       <c r="G9" s="3">
-        <v>10339900</v>
+        <v>9613400</v>
       </c>
       <c r="H9" s="3">
-        <v>9474200</v>
+        <v>10830500</v>
       </c>
       <c r="I9" s="3">
-        <v>11114500</v>
+        <v>9923700</v>
       </c>
       <c r="J9" s="3">
+        <v>11641700</v>
+      </c>
+      <c r="K9" s="3">
         <v>10031500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11355200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10230600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9305000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7412000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46988100</v>
+        <v>54523000</v>
       </c>
       <c r="E10" s="3">
-        <v>50802800</v>
+        <v>49217400</v>
       </c>
       <c r="F10" s="3">
-        <v>40924500</v>
+        <v>53212900</v>
       </c>
       <c r="G10" s="3">
-        <v>46565800</v>
+        <v>42866000</v>
       </c>
       <c r="H10" s="3">
-        <v>41594900</v>
+        <v>48775000</v>
       </c>
       <c r="I10" s="3">
-        <v>45361300</v>
+        <v>43568200</v>
       </c>
       <c r="J10" s="3">
+        <v>47513300</v>
+      </c>
+      <c r="K10" s="3">
         <v>39066400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41782800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37653000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41999000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>40118600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +858,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,17 +870,17 @@
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
-        <v>3004800</v>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G12" s="3">
-        <v>3385500</v>
+        <v>3147400</v>
       </c>
       <c r="H12" s="3">
-        <v>5521100</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>3546100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5783000</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -884,8 +897,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,34 +938,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>334600</v>
+        <v>162000</v>
       </c>
       <c r="E14" s="3">
-        <v>97400</v>
+        <v>350500</v>
       </c>
       <c r="F14" s="3">
-        <v>181500</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>102100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>190200</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>1828900</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>1915600</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1048000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -960,46 +979,52 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13277800</v>
+        <v>13172400</v>
       </c>
       <c r="E15" s="3">
-        <v>13272900</v>
+        <v>13907700</v>
       </c>
       <c r="F15" s="3">
-        <v>11321100</v>
+        <v>13902600</v>
       </c>
       <c r="G15" s="3">
-        <v>11066700</v>
+        <v>11858200</v>
       </c>
       <c r="H15" s="3">
-        <v>11263900</v>
+        <v>11591700</v>
       </c>
       <c r="I15" s="3">
-        <v>10563400</v>
+        <v>11798300</v>
       </c>
       <c r="J15" s="3">
+        <v>11064600</v>
+      </c>
+      <c r="K15" s="3">
         <v>10219800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9788100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10264200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10083700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9734600</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1011,84 +1036,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44018600</v>
+        <v>50312900</v>
       </c>
       <c r="E17" s="3">
-        <v>47878300</v>
+        <v>46107000</v>
       </c>
       <c r="F17" s="3">
-        <v>42593800</v>
+        <v>50149700</v>
       </c>
       <c r="G17" s="3">
-        <v>46785400</v>
+        <v>44614500</v>
       </c>
       <c r="H17" s="3">
-        <v>43495100</v>
+        <v>49005000</v>
       </c>
       <c r="I17" s="3">
-        <v>46603900</v>
+        <v>45558600</v>
       </c>
       <c r="J17" s="3">
+        <v>48814900</v>
+      </c>
+      <c r="K17" s="3">
         <v>41552200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43649500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41909800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42003100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39536900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7754400</v>
+        <v>8993000</v>
       </c>
       <c r="E18" s="3">
-        <v>8678200</v>
+        <v>8122300</v>
       </c>
       <c r="F18" s="3">
-        <v>7508700</v>
+        <v>9089900</v>
       </c>
       <c r="G18" s="3">
-        <v>10120400</v>
+        <v>7864900</v>
       </c>
       <c r="H18" s="3">
-        <v>7574000</v>
+        <v>10600500</v>
       </c>
       <c r="I18" s="3">
-        <v>9871900</v>
+        <v>7933400</v>
       </c>
       <c r="J18" s="3">
+        <v>10340200</v>
+      </c>
+      <c r="K18" s="3">
         <v>7545700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9488500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5973800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9300900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7993700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,84 +1135,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2246600</v>
+        <v>2094500</v>
       </c>
       <c r="E20" s="3">
-        <v>1962800</v>
+        <v>2353100</v>
       </c>
       <c r="F20" s="3">
-        <v>2610400</v>
+        <v>2055900</v>
       </c>
       <c r="G20" s="3">
-        <v>2110800</v>
+        <v>2734200</v>
       </c>
       <c r="H20" s="3">
-        <v>2118900</v>
+        <v>2210900</v>
       </c>
       <c r="I20" s="3">
-        <v>1949100</v>
+        <v>2219400</v>
       </c>
       <c r="J20" s="3">
+        <v>2041600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1989800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1818300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4326900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1730000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1912100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10005900</v>
+        <v>24259900</v>
       </c>
       <c r="E21" s="3">
-        <v>23913900</v>
+        <v>10480600</v>
       </c>
       <c r="F21" s="3">
-        <v>10373500</v>
+        <v>25048400</v>
       </c>
       <c r="G21" s="3">
-        <v>23297800</v>
+        <v>10865600</v>
       </c>
       <c r="H21" s="3">
-        <v>10393400</v>
+        <v>24403100</v>
       </c>
       <c r="I21" s="3">
-        <v>22384400</v>
+        <v>10886500</v>
       </c>
       <c r="J21" s="3">
+        <v>23446400</v>
+      </c>
+      <c r="K21" s="3">
         <v>9847900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21094900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10979100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21114600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12039900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1217,84 +1256,93 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10001000</v>
+        <v>11087600</v>
       </c>
       <c r="E23" s="3">
-        <v>10641000</v>
+        <v>10475400</v>
       </c>
       <c r="F23" s="3">
-        <v>10119000</v>
+        <v>11145800</v>
       </c>
       <c r="G23" s="3">
-        <v>12231100</v>
+        <v>10599100</v>
       </c>
       <c r="H23" s="3">
-        <v>9692900</v>
+        <v>12811400</v>
       </c>
       <c r="I23" s="3">
-        <v>11821000</v>
+        <v>10152800</v>
       </c>
       <c r="J23" s="3">
+        <v>12381800</v>
+      </c>
+      <c r="K23" s="3">
         <v>9535500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11306800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10300700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11030900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9905800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2641900</v>
+        <v>2589500</v>
       </c>
       <c r="E24" s="3">
-        <v>2490800</v>
+        <v>2767200</v>
       </c>
       <c r="F24" s="3">
-        <v>2536700</v>
+        <v>2609000</v>
       </c>
       <c r="G24" s="3">
-        <v>2683400</v>
+        <v>2657100</v>
       </c>
       <c r="H24" s="3">
-        <v>2186400</v>
+        <v>2810700</v>
       </c>
       <c r="I24" s="3">
-        <v>2711200</v>
+        <v>2290200</v>
       </c>
       <c r="J24" s="3">
+        <v>2839800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2532400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2609300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2694100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2512000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2408300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,84 +1379,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7359100</v>
+        <v>8498000</v>
       </c>
       <c r="E26" s="3">
-        <v>8150200</v>
+        <v>7708200</v>
       </c>
       <c r="F26" s="3">
-        <v>7582300</v>
+        <v>8536800</v>
       </c>
       <c r="G26" s="3">
-        <v>9547700</v>
+        <v>7942000</v>
       </c>
       <c r="H26" s="3">
-        <v>7506500</v>
+        <v>10000700</v>
       </c>
       <c r="I26" s="3">
-        <v>9109800</v>
+        <v>7862600</v>
       </c>
       <c r="J26" s="3">
+        <v>9542000</v>
+      </c>
+      <c r="K26" s="3">
         <v>7003100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8697500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7606600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8518900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7497500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7345400</v>
+        <v>8483000</v>
       </c>
       <c r="E27" s="3">
-        <v>8142000</v>
+        <v>7693900</v>
       </c>
       <c r="F27" s="3">
-        <v>7572300</v>
+        <v>8528300</v>
       </c>
       <c r="G27" s="3">
-        <v>9533000</v>
+        <v>7931500</v>
       </c>
       <c r="H27" s="3">
-        <v>7494400</v>
+        <v>9985300</v>
       </c>
       <c r="I27" s="3">
-        <v>9102300</v>
+        <v>7850000</v>
       </c>
       <c r="J27" s="3">
+        <v>9534100</v>
+      </c>
+      <c r="K27" s="3">
         <v>6995600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8690900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7599000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8509200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,8 +1502,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1483,8 +1543,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1521,8 +1584,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,84 +1625,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2246600</v>
+        <v>-2094500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1962800</v>
+        <v>-2353100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2610400</v>
+        <v>-2055900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2110800</v>
+        <v>-2734200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2118900</v>
+        <v>-2210900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1949100</v>
+        <v>-2219400</v>
       </c>
       <c r="J32" s="3">
+        <v>-2041600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1989800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1818300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4326900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1730000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1912100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7345400</v>
+        <v>8483000</v>
       </c>
       <c r="E33" s="3">
-        <v>8142000</v>
+        <v>7693900</v>
       </c>
       <c r="F33" s="3">
-        <v>7572300</v>
+        <v>8528300</v>
       </c>
       <c r="G33" s="3">
-        <v>9533000</v>
+        <v>7931500</v>
       </c>
       <c r="H33" s="3">
-        <v>7494400</v>
+        <v>9985300</v>
       </c>
       <c r="I33" s="3">
-        <v>9102300</v>
+        <v>7850000</v>
       </c>
       <c r="J33" s="3">
+        <v>9534100</v>
+      </c>
+      <c r="K33" s="3">
         <v>6995600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8690900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7599000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8509200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1673,89 +1748,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7345400</v>
+        <v>8483000</v>
       </c>
       <c r="E35" s="3">
-        <v>8142000</v>
+        <v>7693900</v>
       </c>
       <c r="F35" s="3">
-        <v>7572300</v>
+        <v>8528300</v>
       </c>
       <c r="G35" s="3">
-        <v>9533000</v>
+        <v>7931500</v>
       </c>
       <c r="H35" s="3">
-        <v>7494400</v>
+        <v>9985300</v>
       </c>
       <c r="I35" s="3">
-        <v>9102300</v>
+        <v>7850000</v>
       </c>
       <c r="J35" s="3">
+        <v>9534100</v>
+      </c>
+      <c r="K35" s="3">
         <v>6995600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8690900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7599000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8509200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +1854,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,350 +1871,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25550700</v>
+        <v>39734500</v>
       </c>
       <c r="E41" s="3">
-        <v>10339100</v>
+        <v>26762900</v>
       </c>
       <c r="F41" s="3">
-        <v>8322000</v>
+        <v>10829600</v>
       </c>
       <c r="G41" s="3">
-        <v>12017900</v>
+        <v>8716800</v>
       </c>
       <c r="H41" s="3">
-        <v>17520000</v>
+        <v>12588100</v>
       </c>
       <c r="I41" s="3">
-        <v>12055300</v>
+        <v>18351100</v>
       </c>
       <c r="J41" s="3">
+        <v>12627200</v>
+      </c>
+      <c r="K41" s="3">
         <v>13130700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13745400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11849400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14964600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10734500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35589800</v>
+        <v>32577300</v>
       </c>
       <c r="E42" s="3">
-        <v>51392500</v>
+        <v>37278200</v>
       </c>
       <c r="F42" s="3">
-        <v>53490000</v>
+        <v>53830700</v>
       </c>
       <c r="G42" s="3">
-        <v>56061500</v>
+        <v>56027600</v>
       </c>
       <c r="H42" s="3">
-        <v>50104500</v>
+        <v>58721200</v>
       </c>
       <c r="I42" s="3">
-        <v>57374700</v>
+        <v>52481600</v>
       </c>
       <c r="J42" s="3">
+        <v>60096700</v>
+      </c>
+      <c r="K42" s="3">
         <v>53327600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>53061600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50830000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>52932800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>51701400</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10813500</v>
+        <v>13313200</v>
       </c>
       <c r="E43" s="3">
-        <v>14193900</v>
+        <v>11326600</v>
       </c>
       <c r="F43" s="3">
-        <v>10693900</v>
+        <v>14867300</v>
       </c>
       <c r="G43" s="3">
-        <v>10665300</v>
+        <v>11201200</v>
       </c>
       <c r="H43" s="3">
-        <v>8291800</v>
+        <v>11171200</v>
       </c>
       <c r="I43" s="3">
-        <v>16344500</v>
+        <v>8685100</v>
       </c>
       <c r="J43" s="3">
+        <v>17119900</v>
+      </c>
+      <c r="K43" s="3">
         <v>14988900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5873600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6666900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5091800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7044000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1065700</v>
+        <v>1271600</v>
       </c>
       <c r="E44" s="3">
-        <v>1416400</v>
+        <v>1116300</v>
       </c>
       <c r="F44" s="3">
-        <v>1286300</v>
+        <v>1483600</v>
       </c>
       <c r="G44" s="3">
-        <v>1545400</v>
+        <v>1347300</v>
       </c>
       <c r="H44" s="3">
-        <v>1484500</v>
+        <v>1618700</v>
       </c>
       <c r="I44" s="3">
-        <v>1061200</v>
+        <v>1555000</v>
       </c>
       <c r="J44" s="3">
+        <v>1111500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1282700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>996800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1483200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>988000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2679100</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3932700</v>
+        <v>4199300</v>
       </c>
       <c r="E45" s="3">
-        <v>3785300</v>
+        <v>4119300</v>
       </c>
       <c r="F45" s="3">
-        <v>3922800</v>
+        <v>3964900</v>
       </c>
       <c r="G45" s="3">
-        <v>3160900</v>
+        <v>4108900</v>
       </c>
       <c r="H45" s="3">
-        <v>3666000</v>
+        <v>3310900</v>
       </c>
       <c r="I45" s="3">
-        <v>2605600</v>
+        <v>3840000</v>
       </c>
       <c r="J45" s="3">
+        <v>2729200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2468600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1689800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1698100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2238300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2459700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76952400</v>
+        <v>91095800</v>
       </c>
       <c r="E46" s="3">
-        <v>81127200</v>
+        <v>80603200</v>
       </c>
       <c r="F46" s="3">
-        <v>77714900</v>
+        <v>84976100</v>
       </c>
       <c r="G46" s="3">
-        <v>83451000</v>
+        <v>81401800</v>
       </c>
       <c r="H46" s="3">
-        <v>81066800</v>
+        <v>87410100</v>
       </c>
       <c r="I46" s="3">
-        <v>89441200</v>
+        <v>84912800</v>
       </c>
       <c r="J46" s="3">
+        <v>93684500</v>
+      </c>
+      <c r="K46" s="3">
         <v>85198500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75367200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72527500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76215500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>70813500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>22618300</v>
+        <v>23794800</v>
       </c>
       <c r="E47" s="3">
-        <v>21639100</v>
+        <v>23691300</v>
       </c>
       <c r="F47" s="3">
-        <v>21190800</v>
+        <v>22665700</v>
       </c>
       <c r="G47" s="3">
-        <v>19864800</v>
+        <v>22196100</v>
       </c>
       <c r="H47" s="3">
-        <v>19249200</v>
+        <v>20807300</v>
       </c>
       <c r="I47" s="3">
-        <v>18568400</v>
+        <v>20162400</v>
       </c>
       <c r="J47" s="3">
+        <v>19449300</v>
+      </c>
+      <c r="K47" s="3">
         <v>18019300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25467100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25626400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10617700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10264300</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>118670000</v>
+        <v>127602200</v>
       </c>
       <c r="E48" s="3">
-        <v>119247500</v>
+        <v>124300000</v>
       </c>
       <c r="F48" s="3">
-        <v>107277900</v>
+        <v>124904800</v>
       </c>
       <c r="G48" s="3">
-        <v>105908400</v>
+        <v>112367400</v>
       </c>
       <c r="H48" s="3">
-        <v>105457500</v>
+        <v>110932900</v>
       </c>
       <c r="I48" s="3">
-        <v>105140700</v>
+        <v>110460600</v>
       </c>
       <c r="J48" s="3">
+        <v>110128800</v>
+      </c>
+      <c r="K48" s="3">
         <v>103434100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>98549100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>99975400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98354300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>183958500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5637500</v>
+        <v>5912000</v>
       </c>
       <c r="E49" s="3">
-        <v>5440900</v>
+        <v>5905000</v>
       </c>
       <c r="F49" s="3">
-        <v>5513400</v>
+        <v>5699000</v>
       </c>
       <c r="G49" s="3">
-        <v>5467900</v>
+        <v>5774900</v>
       </c>
       <c r="H49" s="3">
-        <v>5382800</v>
+        <v>5727300</v>
       </c>
       <c r="I49" s="3">
-        <v>5368300</v>
+        <v>5638200</v>
       </c>
       <c r="J49" s="3">
+        <v>5623000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5380900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5181200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5359200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5348100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5254400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2166,8 +2279,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2204,46 +2320,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12736200</v>
+        <v>13928900</v>
       </c>
       <c r="E52" s="3">
-        <v>11903100</v>
+        <v>13340500</v>
       </c>
       <c r="F52" s="3">
-        <v>11363200</v>
+        <v>12467800</v>
       </c>
       <c r="G52" s="3">
-        <v>12610200</v>
+        <v>11902300</v>
       </c>
       <c r="H52" s="3">
-        <v>9900200</v>
+        <v>13208400</v>
       </c>
       <c r="I52" s="3">
-        <v>10203600</v>
+        <v>10369900</v>
       </c>
       <c r="J52" s="3">
+        <v>10687600</v>
+      </c>
+      <c r="K52" s="3">
         <v>8861200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9339300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8425400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8750600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7892200</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,46 +2402,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>236614500</v>
+        <v>262333700</v>
       </c>
       <c r="E54" s="3">
-        <v>239357800</v>
+        <v>247840000</v>
       </c>
       <c r="F54" s="3">
-        <v>223060200</v>
+        <v>250713400</v>
       </c>
       <c r="G54" s="3">
-        <v>227302400</v>
+        <v>233642600</v>
       </c>
       <c r="H54" s="3">
-        <v>221056500</v>
+        <v>238086100</v>
       </c>
       <c r="I54" s="3">
-        <v>228722100</v>
+        <v>231543800</v>
       </c>
       <c r="J54" s="3">
+        <v>239573200</v>
+      </c>
+      <c r="K54" s="3">
         <v>220894000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>213903900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>211913900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>199286100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>196044700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2334,8 +2462,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2350,171 +2479,184 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24357100</v>
+        <v>26659200</v>
       </c>
       <c r="E57" s="3">
-        <v>24289000</v>
+        <v>25512700</v>
       </c>
       <c r="F57" s="3">
-        <v>28184500</v>
+        <v>25441300</v>
       </c>
       <c r="G57" s="3">
-        <v>31004300</v>
+        <v>29521600</v>
       </c>
       <c r="H57" s="3">
-        <v>34342800</v>
+        <v>32475200</v>
       </c>
       <c r="I57" s="3">
-        <v>35164700</v>
+        <v>35972100</v>
       </c>
       <c r="J57" s="3">
+        <v>36833000</v>
+      </c>
+      <c r="K57" s="3">
         <v>36604400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33700700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36245300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30427900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33194500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3292100</v>
+        <v>3796200</v>
       </c>
       <c r="E58" s="3">
-        <v>3402400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+        <v>3448300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3563900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>726200</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>760600</v>
+      </c>
+      <c r="K58" s="3">
         <v>725900</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>10100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>155300</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39456800</v>
+        <v>51829100</v>
       </c>
       <c r="E59" s="3">
-        <v>45179300</v>
+        <v>41328700</v>
       </c>
       <c r="F59" s="3">
-        <v>40712300</v>
+        <v>47322700</v>
       </c>
       <c r="G59" s="3">
-        <v>45416300</v>
+        <v>42643800</v>
       </c>
       <c r="H59" s="3">
-        <v>42626500</v>
+        <v>47571000</v>
       </c>
       <c r="I59" s="3">
-        <v>44089600</v>
+        <v>44648700</v>
       </c>
       <c r="J59" s="3">
+        <v>46181400</v>
+      </c>
+      <c r="K59" s="3">
         <v>40569600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41532300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38113800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35153400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>52049100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67106000</v>
+        <v>82284400</v>
       </c>
       <c r="E60" s="3">
-        <v>72870800</v>
+        <v>70289600</v>
       </c>
       <c r="F60" s="3">
-        <v>68896800</v>
+        <v>76327900</v>
       </c>
       <c r="G60" s="3">
-        <v>76420600</v>
+        <v>72165400</v>
       </c>
       <c r="H60" s="3">
-        <v>76969300</v>
+        <v>80046200</v>
       </c>
       <c r="I60" s="3">
-        <v>79980500</v>
+        <v>80620900</v>
       </c>
       <c r="J60" s="3">
+        <v>83774900</v>
+      </c>
+      <c r="K60" s="3">
         <v>77899800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75233000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>74359000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>65591400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>65805900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7499000</v>
+        <v>6883900</v>
       </c>
       <c r="E61" s="3">
-        <v>8237900</v>
+        <v>7854700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>8628700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2529,57 +2671,63 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>716800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>741300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>741000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1198000</v>
+        <v>1268200</v>
       </c>
       <c r="E62" s="3">
-        <v>877600</v>
+        <v>1254800</v>
       </c>
       <c r="F62" s="3">
-        <v>828200</v>
+        <v>919300</v>
       </c>
       <c r="G62" s="3">
-        <v>564800</v>
+        <v>867500</v>
       </c>
       <c r="H62" s="3">
-        <v>472000</v>
+        <v>591600</v>
       </c>
       <c r="I62" s="3">
-        <v>385100</v>
+        <v>494400</v>
       </c>
       <c r="J62" s="3">
+        <v>403400</v>
+      </c>
+      <c r="K62" s="3">
         <v>358300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>212400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>221700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>149600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>228000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2616,8 +2764,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2654,8 +2805,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2692,46 +2846,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76313600</v>
+        <v>90986500</v>
       </c>
       <c r="E66" s="3">
-        <v>82488800</v>
+        <v>79934000</v>
       </c>
       <c r="F66" s="3">
-        <v>70219400</v>
+        <v>86402200</v>
       </c>
       <c r="G66" s="3">
-        <v>77471300</v>
+        <v>73550800</v>
       </c>
       <c r="H66" s="3">
-        <v>77912600</v>
+        <v>81146700</v>
       </c>
       <c r="I66" s="3">
-        <v>80825600</v>
+        <v>81608900</v>
       </c>
       <c r="J66" s="3">
+        <v>84660100</v>
+      </c>
+      <c r="K66" s="3">
         <v>78710700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76603800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75772100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66795300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>67060500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2746,8 +2906,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,8 +2945,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2822,8 +2986,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +3027,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2898,46 +3068,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>101650300</v>
+        <v>109851300</v>
       </c>
       <c r="E72" s="3">
-        <v>98298500</v>
+        <v>106472700</v>
       </c>
       <c r="F72" s="3">
-        <v>94289300</v>
+        <v>102962000</v>
       </c>
       <c r="G72" s="3">
-        <v>91405600</v>
+        <v>98762500</v>
       </c>
       <c r="H72" s="3">
-        <v>84760900</v>
+        <v>95742000</v>
       </c>
       <c r="I72" s="3">
-        <v>89468500</v>
+        <v>88782100</v>
       </c>
       <c r="J72" s="3">
+        <v>93713100</v>
+      </c>
+      <c r="K72" s="3">
         <v>83693400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>79591800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>76486200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72928500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>70816700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2974,8 +3150,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,8 +3191,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3050,46 +3232,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>160301000</v>
+        <v>171347200</v>
       </c>
       <c r="E76" s="3">
-        <v>156869000</v>
+        <v>167905900</v>
       </c>
       <c r="F76" s="3">
-        <v>152840800</v>
+        <v>164311200</v>
       </c>
       <c r="G76" s="3">
-        <v>149831000</v>
+        <v>160091800</v>
       </c>
       <c r="H76" s="3">
-        <v>143143900</v>
+        <v>156939300</v>
       </c>
       <c r="I76" s="3">
-        <v>147896600</v>
+        <v>149934900</v>
       </c>
       <c r="J76" s="3">
+        <v>154913100</v>
+      </c>
+      <c r="K76" s="3">
         <v>142183200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>137300000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>136141800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>132490800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>128984200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3126,89 +3314,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7345400</v>
+        <v>8483000</v>
       </c>
       <c r="E81" s="3">
-        <v>8142000</v>
+        <v>7693900</v>
       </c>
       <c r="F81" s="3">
-        <v>7572300</v>
+        <v>8528300</v>
       </c>
       <c r="G81" s="3">
-        <v>9533000</v>
+        <v>7931500</v>
       </c>
       <c r="H81" s="3">
-        <v>7494400</v>
+        <v>9985300</v>
       </c>
       <c r="I81" s="3">
-        <v>9102300</v>
+        <v>7850000</v>
       </c>
       <c r="J81" s="3">
+        <v>9534100</v>
+      </c>
+      <c r="K81" s="3">
         <v>6995600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8690900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7599000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8509200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3223,8 +3420,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3261,8 +3459,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3299,8 +3500,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3337,8 +3541,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3375,8 +3582,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3413,8 +3623,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3451,46 +3664,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17632200</v>
+        <v>24349100</v>
       </c>
       <c r="E89" s="3">
-        <v>18325400</v>
+        <v>18468700</v>
       </c>
       <c r="F89" s="3">
-        <v>12756100</v>
+        <v>19194800</v>
       </c>
       <c r="G89" s="3">
-        <v>17183200</v>
+        <v>13361300</v>
       </c>
       <c r="H89" s="3">
-        <v>15575800</v>
+        <v>17998400</v>
       </c>
       <c r="I89" s="3">
-        <v>20080200</v>
+        <v>16314700</v>
       </c>
       <c r="J89" s="3">
+        <v>21032900</v>
+      </c>
+      <c r="K89" s="3">
         <v>15946500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20646600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15710800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19178700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13267900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3505,46 +3724,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-17015900</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-12373600</v>
+        <v>-17823100</v>
       </c>
       <c r="F91" s="3">
-        <v>-16395700</v>
+        <v>-12960600</v>
       </c>
       <c r="G91" s="3">
-        <v>-11545800</v>
+        <v>-17173600</v>
       </c>
       <c r="H91" s="3">
-        <v>-15636500</v>
+        <v>-12093500</v>
       </c>
       <c r="I91" s="3">
-        <v>-12395100</v>
+        <v>-16378300</v>
       </c>
       <c r="J91" s="3">
+        <v>-12983100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-15312300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11876400</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10353800</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3581,8 +3804,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3619,46 +3845,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1514600</v>
+        <v>-7297500</v>
       </c>
       <c r="E94" s="3">
-        <v>-10839200</v>
+        <v>1586500</v>
       </c>
       <c r="F94" s="3">
-        <v>-12145400</v>
+        <v>-11353500</v>
       </c>
       <c r="G94" s="3">
-        <v>-18676900</v>
+        <v>-12721600</v>
       </c>
       <c r="H94" s="3">
-        <v>1628000</v>
+        <v>-19562900</v>
       </c>
       <c r="I94" s="3">
-        <v>-17099800</v>
+        <v>1705300</v>
       </c>
       <c r="J94" s="3">
+        <v>-17911100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13701100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14374100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9892900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11291600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6494200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3673,8 +3905,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3711,8 +3944,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3749,8 +3985,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3787,8 +4026,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3825,118 +4067,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3954600</v>
+        <v>-4087800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5471000</v>
+        <v>-4142200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4349300</v>
+        <v>-5730500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4047900</v>
+        <v>-4555700</v>
       </c>
       <c r="H100" s="3">
-        <v>-11706300</v>
+        <v>-4239900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4012100</v>
+        <v>-12261600</v>
       </c>
       <c r="J100" s="3">
+        <v>-4202500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3063200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3998200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9657600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3181300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2037300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19500</v>
+        <v>7800</v>
       </c>
       <c r="E101" s="3">
-        <v>1900</v>
+        <v>20400</v>
       </c>
       <c r="F101" s="3">
-        <v>42700</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
-        <v>39500</v>
+        <v>44700</v>
       </c>
       <c r="H101" s="3">
-        <v>-32800</v>
+        <v>41400</v>
       </c>
       <c r="I101" s="3">
-        <v>-43700</v>
+        <v>-34400</v>
       </c>
       <c r="J101" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K101" s="3">
         <v>35400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>36700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15211700</v>
+        <v>12971600</v>
       </c>
       <c r="E102" s="3">
-        <v>2017100</v>
+        <v>15933400</v>
       </c>
       <c r="F102" s="3">
-        <v>-3696000</v>
+        <v>2112800</v>
       </c>
       <c r="G102" s="3">
-        <v>-5502000</v>
+        <v>-3871300</v>
       </c>
       <c r="H102" s="3">
-        <v>5464700</v>
+        <v>-5763100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1075400</v>
+        <v>5724000</v>
       </c>
       <c r="J102" s="3">
+        <v>-1126400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-782400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2289700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3803000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4697900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4003000</v>
       </c>
     </row>
